--- a/R/UKPDS_mortality_coef.xlsx
+++ b/R/UKPDS_mortality_coef.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Documents\GitHub\COMPAR-EU_diabetes_model\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{126E7166-EB0C-4E96-A600-8504DA6E2F05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C249256-4623-402D-A723-34F2B02CD6A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UKPDS_mortality_coef" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>DEATHNOHIST</t>
   </si>
@@ -113,12 +113,63 @@
   </si>
   <si>
     <t>STROKE.HIST</t>
+  </si>
+  <si>
+    <t>AFRO</t>
+  </si>
+  <si>
+    <t>HbA1c</t>
+  </si>
+  <si>
+    <t>SBP</t>
+  </si>
+  <si>
+    <t>LDL</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>eGFR</t>
+  </si>
+  <si>
+    <t>HAEM</t>
+  </si>
+  <si>
+    <t>Patient characteristics</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>H(t)</t>
+  </si>
+  <si>
+    <t>H(t+1)</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Gompertz</t>
+  </si>
+  <si>
+    <t>Logistic</t>
+  </si>
+  <si>
+    <t>Logistic distribution</t>
+  </si>
+  <si>
+    <t>Different formula</t>
+  </si>
+  <si>
+    <t>Same as in R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -596,8 +647,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="15" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -952,29 +1006,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29:N32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -989,9 +1074,21 @@
       <c r="E2">
         <v>-4.8680000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -1007,8 +1104,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -1023,9 +1120,29 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G4">
+        <f>C36</f>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f>$G4*B4</f>
+        <v>-0.22900000000000001</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:L4" si="0">$G$4*C4</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -1040,9 +1157,29 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5">
+        <f>F36</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>$G5*B5</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:L20" si="1">$G5*C5</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
@@ -1057,9 +1194,29 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G6">
+        <f>B36</f>
+        <v>8.44</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I28" si="2">$G6*B6</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0.35448000000000002</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
@@ -1074,9 +1231,29 @@
       <c r="E7">
         <v>1.081</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G7">
+        <f>N36</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>$G7*B7</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8">
@@ -1091,9 +1268,29 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G8">
+        <f>IF(K36&lt;18.5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>$G8*B8</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9">
@@ -1108,9 +1305,29 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="G9">
+        <f>IF(K36&gt;=25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f>$G9*B9</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>-0.29299999999999998</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10">
@@ -1125,9 +1342,29 @@
       <c r="E10">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="G10">
+        <f>A36</f>
+        <v>57</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>3.306</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11">
@@ -1142,9 +1379,29 @@
       <c r="E11">
         <v>6.8000000000000005E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="G11">
+        <f>I36*10</f>
+        <v>30.8</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>2.0944000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12">
@@ -1159,9 +1416,29 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="G12">
+        <f>Q36/10</f>
+        <v>7.9</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13">
@@ -1176,9 +1453,29 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="G13">
+        <f>L36</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14">
@@ -1193,9 +1490,29 @@
       <c r="E14">
         <v>0.35199999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="G14">
+        <f>M36</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15">
@@ -1210,9 +1527,29 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="G15">
+        <f>D36</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16">
@@ -1227,9 +1564,29 @@
       <c r="E16">
         <v>8.8999999999999996E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="G16">
+        <f>P36</f>
+        <v>6.6</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0.31679999999999997</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0.58739999999999992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17">
@@ -1244,9 +1601,28 @@
       <c r="E17">
         <v>-1.2669999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18">
@@ -1261,9 +1637,28 @@
       <c r="E18">
         <v>0.753</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19">
@@ -1278,9 +1673,28 @@
       <c r="E19">
         <v>-1.7270000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20">
@@ -1295,9 +1709,28 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21">
@@ -1312,9 +1745,28 @@
       <c r="E21">
         <v>0.58299999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:J28" si="3">$G21*C21</f>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:K28" si="4">$G21*D21</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21:L28" si="5">$G21*E21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B22">
@@ -1329,9 +1781,28 @@
       <c r="E22">
         <v>-0.50700000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23">
@@ -1346,9 +1817,28 @@
       <c r="E23">
         <v>0.98199999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24">
@@ -1363,9 +1853,28 @@
       <c r="E24">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B25">
@@ -1380,9 +1889,28 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B26">
@@ -1397,9 +1925,28 @@
       <c r="E26">
         <v>0.96099999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B27">
@@ -1414,9 +1961,28 @@
       <c r="E27">
         <v>-0.61899999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B28">
@@ -1431,8 +1997,253 @@
       <c r="E28">
         <v>0</v>
       </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29">
+        <f>SUM(I4:I28)</f>
+        <v>-0.22900000000000001</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29:L29" si="6">SUM(J4:J28)</f>
+        <v>4.6400800000000002</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>2.3799999999999988E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="6"/>
+        <v>5.5317999999999996</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30">
+        <f>(1/B3)*(EXP(B2+I29))*(EXP(B3*G10)-1)</f>
+        <v>3.9479676974476248E-2</v>
+      </c>
+      <c r="J30">
+        <f>EXP(-(J29+C2))</f>
+        <v>9.7368728161695604</v>
+      </c>
+      <c r="K30">
+        <f>(1/D3)*(EXP(D2+K29))*(EXP(D3*G10)-1)</f>
+        <v>8.8866596152617869E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ref="K30:L30" si="7">EXP(-(L29+E2))</f>
+        <v>0.51489102636497552</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31">
+        <f>(1/B3)*(EXP(B2+I29))*(EXP(B3*(G10+1))-1)</f>
+        <v>4.3559915356300584E-2</v>
+      </c>
+      <c r="J31">
+        <f>1+J30</f>
+        <v>10.73687281616956</v>
+      </c>
+      <c r="K31">
+        <f>(1/D3)*(EXP(D2+K29))*(EXP(D3*(G10+1))-1)</f>
+        <v>9.5703105764895005E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="K31:L31" si="8">1+L30</f>
+        <v>1.5148910263649755</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32">
+        <f>1-EXP(I30-I31)</f>
+        <v>4.0719255191951076E-3</v>
+      </c>
+      <c r="J32">
+        <f>1-(J30/J31)</f>
+        <v>9.3136988499483375E-2</v>
+      </c>
+      <c r="K32">
+        <f>1-EXP(K30-K31)</f>
+        <v>6.8131938435199713E-3</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ref="K32:L32" si="9">1-(L30/L31)</f>
+        <v>0.66011348842664197</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H33" s="1"/>
+      <c r="J33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <v>8.44</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H36">
+        <v>139</v>
+      </c>
+      <c r="I36">
+        <v>3.08</v>
+      </c>
+      <c r="J36">
+        <v>1.19</v>
+      </c>
+      <c r="K36">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>70</v>
+      </c>
+      <c r="P36">
+        <v>6.6</v>
+      </c>
+      <c r="Q36">
+        <v>79</v>
+      </c>
+      <c r="R36">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/R/UKPDS_mortality_coef.xlsx
+++ b/R/UKPDS_mortality_coef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Documents\GitHub\COMPAR-EU_diabetes_model\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C249256-4623-402D-A723-34F2B02CD6A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2B4142-75F2-4866-8BA3-1931337785D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,9 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29:N32"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2058,7 +2056,7 @@
         <v>8.8866596152617869E-2</v>
       </c>
       <c r="L30">
-        <f t="shared" ref="K30:L30" si="7">EXP(-(L29+E2))</f>
+        <f t="shared" ref="L30" si="7">EXP(-(L29+E2))</f>
         <v>0.51489102636497552</v>
       </c>
       <c r="N30" s="3" t="s">
@@ -2082,7 +2080,7 @@
         <v>9.5703105764895005E-2</v>
       </c>
       <c r="L31">
-        <f t="shared" ref="K31:L31" si="8">1+L30</f>
+        <f t="shared" ref="L31" si="8">1+L30</f>
         <v>1.5148910263649755</v>
       </c>
       <c r="N31" s="3" t="s">
@@ -2106,7 +2104,7 @@
         <v>6.8131938435199713E-3</v>
       </c>
       <c r="L32">
-        <f t="shared" ref="K32:L32" si="9">1-(L30/L31)</f>
+        <f t="shared" ref="L32" si="9">1-(L30/L31)</f>
         <v>0.66011348842664197</v>
       </c>
       <c r="N32" s="3" t="s">

--- a/R/UKPDS_mortality_coef.xlsx
+++ b/R/UKPDS_mortality_coef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Documents\GitHub\COMPAR-EU_diabetes_model\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2B4142-75F2-4866-8BA3-1931337785D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8089EF37-5E3B-4008-BF10-FCC05F3FB520}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,7 +1009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/R/UKPDS_mortality_coef.xlsx
+++ b/R/UKPDS_mortality_coef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Documents\GitHub\COMPAR-EU_diabetes_model\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8089EF37-5E3B-4008-BF10-FCC05F3FB520}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB3FB39-23C2-4CD0-BEFF-18154B299022}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,11 +1122,11 @@
       </c>
       <c r="G4">
         <f>C36</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <f>$G4*B4</f>
-        <v>-0.22900000000000001</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:L4" si="0">$G$4*C4</f>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="G6">
         <f>B36</f>
-        <v>8.44</v>
+        <v>12</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I28" si="2">$G6*B6</f>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>0.35448000000000002</v>
+        <v>0.504</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="G10">
         <f>A36</f>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>3.306</v>
+        <v>4.0600000000000005</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>2.85</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="G12">
         <f>Q36/10</f>
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>0.97960000000000003</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
@@ -1529,19 +1529,19 @@
       </c>
       <c r="G15">
         <f>D36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.379</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.374</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="G16">
         <f>P36</f>
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
@@ -1578,11 +1578,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>0.31679999999999997</v>
+        <v>0.28800000000000003</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>0.58739999999999992</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
@@ -2023,19 +2023,19 @@
       </c>
       <c r="I29">
         <f>SUM(I4:I28)</f>
-        <v>-0.22900000000000001</v>
+        <v>0.379</v>
       </c>
       <c r="J29">
         <f t="shared" ref="J29:L29" si="6">SUM(J4:J28)</f>
-        <v>4.6400800000000002</v>
+        <v>6</v>
       </c>
       <c r="K29">
         <f t="shared" si="6"/>
-        <v>2.3799999999999988E-2</v>
+        <v>1.0010000000000001</v>
       </c>
       <c r="L29">
         <f t="shared" si="6"/>
-        <v>5.5317999999999996</v>
+        <v>6.1284000000000001</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>47</v>
@@ -2047,19 +2047,19 @@
       </c>
       <c r="I30">
         <f>(1/B3)*(EXP(B2+I29))*(EXP(B3*G10)-1)</f>
-        <v>3.9479676974476248E-2</v>
+        <v>0.25995112039631146</v>
       </c>
       <c r="J30">
         <f>EXP(-(J29+C2))</f>
-        <v>9.7368728161695604</v>
+        <v>2.4992732759606531</v>
       </c>
       <c r="K30">
         <f>(1/D3)*(EXP(D2+K29))*(EXP(D3*G10)-1)</f>
-        <v>8.8866596152617869E-2</v>
+        <v>0.61584588349743818</v>
       </c>
       <c r="L30">
         <f t="shared" ref="L30" si="7">EXP(-(L29+E2))</f>
-        <v>0.51489102636497552</v>
+        <v>0.28354058757846734</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>47</v>
@@ -2071,19 +2071,19 @@
       </c>
       <c r="I31">
         <f>(1/B3)*(EXP(B2+I29))*(EXP(B3*(G10+1))-1)</f>
-        <v>4.3559915356300584E-2</v>
+        <v>0.28674451571003962</v>
       </c>
       <c r="J31">
         <f>1+J30</f>
-        <v>10.73687281616956</v>
+        <v>3.4992732759606531</v>
       </c>
       <c r="K31">
         <f>(1/D3)*(EXP(D2+K29))*(EXP(D3*(G10+1))-1)</f>
-        <v>9.5703105764895005E-2</v>
+        <v>0.66276744534965415</v>
       </c>
       <c r="L31">
         <f t="shared" ref="L31" si="8">1+L30</f>
-        <v>1.5148910263649755</v>
+        <v>1.2835405875784673</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>47</v>
@@ -2095,19 +2095,19 @@
       </c>
       <c r="I32">
         <f>1-EXP(I30-I31)</f>
-        <v>4.0719255191951076E-3</v>
+        <v>2.6437636706094225E-2</v>
       </c>
       <c r="J32">
         <f>1-(J30/J31)</f>
-        <v>9.3136988499483375E-2</v>
+        <v>0.28577362244606941</v>
       </c>
       <c r="K32">
         <f>1-EXP(K30-K31)</f>
-        <v>6.8131938435199713E-3</v>
+        <v>4.5837762626229184E-2</v>
       </c>
       <c r="L32">
         <f t="shared" ref="L32" si="9">1-(L30/L31)</f>
-        <v>0.66011348842664197</v>
+        <v>0.77909495786697636</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>47</v>
@@ -2188,16 +2188,16 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B36">
-        <v>8.44</v>
+        <v>12</v>
       </c>
       <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>1</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2233,10 +2233,10 @@
         <v>70</v>
       </c>
       <c r="P36">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="Q36">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R36">
         <v>14</v>
